--- a/target/classes/TestData.xlsx
+++ b/target/classes/TestData.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Homepage" sheetId="1" r:id="rId1"/>
+    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginPageDataProvider" sheetId="3" r:id="rId3"/>
+    <sheet name="RegisterPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,15 +21,93 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Demo Web Shop</t>
+  </si>
+  <si>
+    <t>SubMessage</t>
+  </si>
+  <si>
+    <t>Demo Web Shop. Login</t>
+  </si>
+  <si>
+    <t>Thank you for signing up! A verification email has been sent. We appreciate your interest.</t>
+  </si>
+  <si>
+    <t>test123@test.com</t>
+  </si>
+  <si>
+    <t>test@yop.com</t>
+  </si>
+  <si>
+    <t>test123@yop.com</t>
+  </si>
+  <si>
+    <t>Login was unsuccessful. Please correct the errors and try again.</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>email id</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Qatesting</t>
+  </si>
+  <si>
+    <t>Qatesting@yop.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5C5B5B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +130,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +419,156 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="16.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>